--- a/TP1/Entrega/LoteDePruebas/ResultadoPruebas.xlsx
+++ b/TP1/Entrega/LoteDePruebas/ResultadoPruebas.xlsx
@@ -8,10 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Conclusiones" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -452,214 +451,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SALIDA:
-SI 2
-1 3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SALIDA:
-SI 2
-1 3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SALIDA:
-SI 2
-1 3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SALIDA:
-SI 1
-1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SALIDA:
-SI 
-2 1 3 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SALIDA:
-SI 2
-1 3 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SALIDA:
-SI 1
-1 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SAIDA:
-SI 2
-1 3</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="J9" authorId="0">
       <text>
         <r>
@@ -989,7 +780,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="26">
   <si>
     <t>A</t>
   </si>
@@ -1027,12 +818,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>Presenta un error en la generacion del archivo de salida, para los casos que encuentra numero M buscado. Luego del "SI" escribe en la linea siguiente la cantidad de ocurrencias y luego la/las posiciones donde comienza M. En los casos en que no hay ocurrencias no presenta fallas, ya que solo debe imprimir "NO".</t>
-  </si>
-  <si>
-    <t>La primera particularidad, a diferencia de los demas ejecutables, es que la aplicación pedia "Presionar una tecla para continuar.." desde la consola, siempre y cuando no quedara colgada. Ademas se presento una anomalia en 2 casos, con M igual a 10 digitos y otro igual a 250, la apliacion quedaba unos segundos iniciada sin responder y luego se cerraba, generando el archivo de Salida vacio. Por lo que presentaria un error de procesamiento, no pudiendo cumplir el requerimiento de longitud de M, tal que 1&lt;=M&lt;=N.</t>
-  </si>
-  <si>
     <t>01_UnicoDigitoParaM</t>
   </si>
   <si>
@@ -1072,17 +857,14 @@
     <t>00_Enunciado</t>
   </si>
   <si>
-    <t>En los casos de prueba 7-8-9-10-11, donde M era "25" y N diferentes longitudes, detectamos el siguiente patron: la aplicación devolvia todas las posiciones en donde encontraba un "3" y el numero de la posicion terminaba en "3". Luego de imprimir todas estas posiciones imprimia la posicion donde encontraba la ocurrencia del "25", si asi lo existiese.</t>
-  </si>
-  <si>
-    <t>OBSERVACION</t>
+    <t>13_M4_NTodasCombinatoriaPosiblesDe4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,15 +898,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1140,12 +915,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1221,26 +990,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1546,34 +1303,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1605,40 +1362,40 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1672,7 +1429,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1705,7 +1462,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -1738,7 +1495,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1771,7 +1528,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -1804,31 +1561,31 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>7</v>
@@ -1837,7 +1594,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -1870,7 +1627,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -1903,7 +1660,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -1936,7 +1693,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1969,7 +1726,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -2003,33 +1760,65 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2046,92 +1835,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="2:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/TP1/Entrega/LoteDePruebas/ResultadoPruebas.xlsx
+++ b/TP1/Entrega/LoteDePruebas/ResultadoPruebas.xlsx
@@ -775,12 +775,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="J17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SALIDA: VACIO
+QUEDA LA APLICACIÓN COLGADA EN EL PROMP</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="28">
   <si>
     <t>A</t>
   </si>
@@ -858,6 +883,12 @@
   </si>
   <si>
     <t>13_M4_NTodasCombinatoriaPosiblesDe4</t>
+  </si>
+  <si>
+    <t>14_N10_M8</t>
+  </si>
+  <si>
+    <t>15_N10_M7</t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,6 +1851,70 @@
       </c>
       <c r="J16" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
